--- a/deployment/v3/mosip/kernel/masterdata/upload/xlsx/machine_type.xlsx
+++ b/deployment/v3/mosip/kernel/masterdata/upload/xlsx/machine_type.xlsx
@@ -64,7 +64,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
+    <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -146,7 +146,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -157,6 +157,14 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -179,7 +187,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E:E E1"/>
+      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E:E"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.4296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -200,21 +208,21 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="1" t="n">
@@ -223,16 +231,16 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" s="4" t="s">
         <v>11</v>
       </c>
       <c r="E3" s="1" t="n">

--- a/deployment/v3/mosip/kernel/masterdata/upload/xlsx/machine_type.xlsx
+++ b/deployment/v3/mosip/kernel/masterdata/upload/xlsx/machine_type.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t xml:space="preserve">lang_code</t>
   </si>
@@ -47,6 +47,9 @@
   </si>
   <si>
     <t xml:space="preserve">Desktop Computer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRUE</t>
   </si>
   <si>
     <t xml:space="preserve">fra</t>
@@ -187,7 +190,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E:E"/>
+      <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.4296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -225,27 +228,25 @@
       <c r="D2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="E2" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>12</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/deployment/v3/mosip/kernel/masterdata/upload/xlsx/machine_type.xlsx
+++ b/deployment/v3/mosip/kernel/masterdata/upload/xlsx/machine_type.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t xml:space="preserve">lang_code</t>
   </si>
@@ -35,30 +35,6 @@
   </si>
   <si>
     <t xml:space="preserve">is_active</t>
-  </si>
-  <si>
-    <t xml:space="preserve">eng</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DKS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Desktop</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Desktop Computer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TRUE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fra</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ordinateur</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ordinateurs de bureau</t>
   </si>
 </sst>
 </file>
@@ -149,7 +125,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -164,10 +140,6 @@
     </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -187,13 +159,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.4296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.4453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="8.43"/>
   </cols>
@@ -215,44 +187,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
